--- a/news_data/2015_09.xlsx
+++ b/news_data/2015_09.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>naver_news_title</t>
   </si>
@@ -22,6 +22,36 @@
     <t>naver_news_articles</t>
   </si>
   <si>
+    <t>제주도-관광공사, 中 레저동호회 관계자 팸투어</t>
+  </si>
+  <si>
+    <t>제주도-관광공사, '대만 관광객 잡기' 본격 관광홍보</t>
+  </si>
+  <si>
+    <t>추석 연휴 첫날 제주도 관광객 수 '역대 최고'</t>
+  </si>
+  <si>
+    <t>제주도-관광공사, 日여행박람회 참가 관광홍보</t>
+  </si>
+  <si>
+    <t>제주도 관광시즌 맞아 무자격 가이드 집중단속</t>
+  </si>
+  <si>
+    <t>가족독채펜션 여행, 중문관광단지와 가까운 제주도펜션 ‘하바다통나무집’</t>
+  </si>
+  <si>
+    <t>제주도 농산어촌 활용한 관광상품 나오나?</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 제주관광인 한마음대회 성황</t>
+  </si>
+  <si>
+    <t>추석에 제주도로 크루즈 관광객 2만명 들어온다</t>
+  </si>
+  <si>
+    <t>추석 관광객 21만3000명 제주도로 온다</t>
+  </si>
+  <si>
     <t>[2015 국감]박수현 "제주도 방문 중국인 관광객 늘어도 중국 항공사만 이익"</t>
   </si>
   <si>
@@ -52,22 +82,40 @@
     <t>제주도를 대표할 관광명품·명장 어디있나요?</t>
   </si>
   <si>
-    <t>[2015 국감]박수현 “제주도 방문 중국인 관광객 늘어도 중국 항공사만 이익” - 아시아투데이 아시아투데이 서울 다른도시17.1℃ 춘천강릉서울인천충주대전대구전주울산광주부산제주 뉴델리 23.8℃ 도쿄 26.6℃ 베이징 10.1℃ 자카르타 27.4℃ 네이버뉴스스탠드 네이버 포스트 유투브 페이스북 트위터 최신 오피니언 사설 칼럼·외고 기자의 눈 피플 정치 정치일반 대통령실 국회·정당 북한 외교 국방 정부 사회 사회일반 사건·사고 법원·검찰 교육·행정 노동·복지·환경 보건·의약 경제 경제일반 정책 금융·증권 산업 IT·과학 부동산 유통 중기·벤처 아투시티뉴스 종합 경기·인천 세종·충청 영남 호남 강원 제주 국제 세계일반 아시아·호주 북미 중남미 유럽 중동·아프리카 문화·스포츠 전체 방송 가요 영화 문화 종교 스포츠 여행 포토 전체 포토 비주얼뉴스 지면보기 제보24시 자문위원단 독자권익위원회 아투TV 대학동문골프최강전 글로벌 리더스 클럽 English中文 [2015 국감]박수현 “제주도 방문 중국인 관광객 늘어도 중국 항공사만 이익” "HMM, 컨테이너 운임 하락으로 4분기 실적 급감" 정부, 쌀 수확기 수급안정대책 발표…공공비축미 45만t 매입 2022년 10월 4일(화) 자문위원단 독자권익위원회 제보24시 전체메뉴 경제 경제일반 정책 금융·증권 산업 IT·과학 부동산 유통 중기·벤처 검색버튼 [2015 국감]박수현 “제주도 방문 중국인 관광객 늘어도 중국 항공사만 이익” 기사승인 2015. 09. 14. 13:46 가 (더 작게) 가 (작게) 가 (기본) 가 (크게) 가 (더 크게) 제주~중국 노선 운항 항공사 80%가량 중국 항공사"외환위기 이후 일방적인 자유화 탓, 항공회담 필요" 새정치민주연합 박수현 의원0국회에서 질의하고 있는 박수현 새정치민주연합 의원/제공=연합뉴스 제주도를 방문하는 중국인 관광객이 늘어도 정작 혜택은 중국항공사에게 돌아가 중국과의 항공회담이 필요하다는 지적이 제기됐다.국회 국토교통위원회 소속 새정치민주연합 박수현 의원은 14일 열린 한국공항공사에 대한 국정감사에서 “올해 상반기 제주를 찾은 중국인 관광객은 116만1941명으로 지난해 같은 기간 110만9759명보다 6만명 가량 늘었지만 국내 항공사들은 제주공항의 일방적 자유화 정책에 막혀 그 혜택을 보지 못하고 있다”고 지적했다.실제 한국공항공사가 제출한 자료에 따르면 제주~중국노선의 운항횟수는 2013년 8555편, 작년 1만2894편으로 늘어났다. 올해 들어서도 8월말 현재 7444편이 운항돼 메르스 사태에도 불구하고 지난해 같은 기간과 비슷한 수준을 유지하고 있다. 반면 지난해 제주~중국 노선을 운항한 1만2894편 중 국내 항공사의 운항횟수는 2621편으로 20%에 불과했다. 박 의원은 “중국인 관광객의 급증이 항공수요를 증가시켰지만 그 혜택은 중국항공사가 가져가고 있어 제주의 하늘길이 중국에 장악 당했다”며 “이는 외환위기 직후인 제주관광 활성화 명목으로 제주공항에 한해 ‘일방적 자유화’를 추진해 탓으로, 중국 항공사와 달리 국내 항공사들은 중국과의 항공회담을 통해야만 중국노선에 취항 할 수 있어 불평등이 심화되고 있다”고 말했다.이어 “중국항공사의 제주~중국노선 점유율이 2013년 56.2%, 작년 79.1%, 올해는 8월말 현재 83.5%까지 늘어났는데 정부의 대응은 너무 무능력하다”고 질책하며 “조속히 중국과의 항공회담을 열어 불평등을 해소 할 것”을 촉구했다. 황의중 기자 hej80@asiatoday.co.kr ⓒ아시아투데이, 무단전재 및 재배포 금지 댓글 라이브리 댓글 작성을 위해 JavaScript를 활성화 해주세요 많이 본 뉴스 연예가 핫 뉴스 1 [단독] ‘힌남노’가 포스코 강타할 때…최정우 회장, 전.. 2 연말인사 앞둔 롯데, 신동빈 회장 ‘주가 관리’ 지시 후.. 3 이재용·손정의, ‘80조 ARM 메가딜’ 해법 촉각 4 현대차그룹, 러시아 ‘사업 중단’ 반 년 넘겨…벌써 순이.. 5 굿바이~ 보령... 충남체육대회 4일간 여정 막 내려 6 ‘3高’ 위기 몰려온다… 사장단 회의 소집한 대기업 ‘비.. 1 YG 측, 블랙핑크 제니·방탄소년단 뷔 사생활 사진 노출.. 2 “임영웅과 데이트 하는 느낌”…‘사랑해 진짜’ 뮤비 10.. 3 개천절 KIA-LG, kt-NC전 우천 취소, 향후 일정.. 4 최지우·이유미·최민호 등 영화 ‘뉴 노멀’, 해외 유명.. 5 ‘응우옌 MVP-김가영 수훈갑’ 신생 하나카드 PBA 전.. 6 애주가 이찬원, ‘톡파원 25시’서 헝가리 술 추천에 ‘.. 오늘의 주요뉴스 北, 이번엔 중거리 탄도미사일 쐈다…日상공 통과 尹 “감사원 독립 헌법기관…대통령 언급 적절치 않아” “말로만 안전투자”…최정우式 ‘현금경영’ 재해 키웠다 재정준칙 없으면 2060년 국민 1인당 나라빚 1억 넘어 황교안 “文, 국민에 무례한 행동 말고 진실규명 협조” 고환율 속 물가 또다시 꿈틀… 힘 잃는 ‘10월 정점론’ 당정 “심야 택시 탄력호출료 확대…곧 정부조직 개편” 여자친구가 거짓말했다고 감금·폭행…20대 남성 체포 北 잇단 미사일 도발에…軍, 괴물미사일 ‘현무’로 맞불 논문 베껴도 ‘솜방망이’ 처벌…서울대 3년간 중징계 ‘0’ 글로벌리더스클럽 회사소개 | 광고안내 | 행사안내 | 구독신청 | 제보24시 | 고충처리 | 회원약관 | 개인정보취급방침 | 청소년보호정책 | 저작권규약 | 인재채용 등록번호 : 서울 아00160 | 등록일 : 2006년 1월 18일 | 제호 : 아시아투데이 | 회장 : 송인준 | 발행인ㆍ편집인 : 우종순 서울시 영등포구 의사당대로1길 34 인영빌딩 | 발행일자 : 2005년 11월 11일 | 대표전화 : 02) 769-5000 | 청소년보호책임자 : 성희제 아시아투데이는 인터넷신문위원회 윤리강령을 준수합니다. Copyright by ASIATODAY Co., Ltd. All Rights Reserved</t>
-  </si>
-  <si>
-    <t>제주도 찾은 외국인 관광객 천만명 중 중국인은… - 노컷뉴스 전체메뉴보기 노컷뉴스메인가기 제주도 찾은 외국인 관광객 천만명 중 중국인은… 뉴스듣기 0 페이스북 트위터 밴드 카카오톡 URL 폰트사이즈 - + 인쇄 CBS 전국 네트워크 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 닫기 크리스천뉴스 노컷비즈 노컷TV 노컷뉴스 경제 최신 정치 사회 전국 경제 산업 국제 문화 연예 스포츠 오피니언 포토 그래픽 노컷브이 핫이슈 스페셜 기획 제보 네이버 구독 다음 구독 카카오 구독 삭제 검색 자동완성 끄기 뉴스 정치 사회 전국 경제 산업 국제 문화 연예 스포츠 지역 서울 경인 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 일반 이슈 핫이슈 스페셜 기획 딥뉴스 노컷체크 인터랙티브 타임라인 시사 김현정의 뉴스쇼 한판승부 김덕기의 아침뉴스 정다운의 뉴스톡 530 오피니언 칼럼 뒤끝작렬 기고 노컷브이 그래픽 포토 노컷TV 씨리얼 팟캐스트 닫기 경제 경제 일반 제주도 찾은 외국인 관광객 천만명 중 중국인은… CBS노컷뉴스 조백근 대기자 메일보내기 2015-09-02 17:57 뉴스듣기 0 페이스북 트위터 밴드 카카오톡 URL 폰트사이즈 - + 인쇄 (사진=스마트이미지 제공) 지난 2005년부터 10년간 제주도를 찾은 관광객은 천만명을 훌쩍 넘었고 이 가운데 중국인이 70%이상으로 가장 많았던 것으로 나타났다. 제주국제자유도시개발센터가 새누리당 김희국의원에게 제출한 자료에 따르면 최근 10년간 제주도를 찾은 관광객은 1171만9427명인 것으로 집계됐다.국적별로는 중국인이 760만74명으로 가장 많았고, 이어 일본인이 163만8358명, 대만이 49만4171명,싱가폴 36만9093명, 미국인이 21만8333명 순이었다.최근 3년간 제주공항면세점에서 외국인 관광객들이 가장 많이 쇼핑한 물건은 화장품이 압도적이었다. {RELNEWS:right}2012년도에 25억3900만원어치의 화장품이 팔렸고, 2013년엔 45억3500만원, 2014년엔 72억9100만원, 2015년7월말현재 26억5400만원어치의 화장품이 각각 팔렸다. 화장품외 상위 10위 면세품목은 핸드백/지갑.밸트, 담배, 향수, 시계, 선글라스, 주류, 홍삼, 엑세서리, 초콜릿으로 나타났다.특히 중국인 관광객은 지난 2012년에108만4094명으로 백만명을 넘긴 이후 불과 3년만인 2014년엔 332만8316명으로 폭발적으로 늘었으며 화장품 판매가 늘어난 것도 중국인 관광객 증가에 따른 것이다. 김희국 의원은 “중국인 관광객 급증은 환영할 일이지만 거기에만 너무 집중하다 보면 다른 나라 관광객 유치에 소홀해질 수 있는만큼 다양한 나라 사람들이 보다 많이 제주도를 찾을 수 있도록 적극적인 홍보가 필요하다”고 말했다. 더 클릭 다음 정권에 '1기 신도시' 넘긴 尹정부…주민들, '항의집회' 예고 [단독]'쌍방울, 北에 1천만불 약속' 국정원 문건 입수 "월급 줄 돈 없어"…기증받은 인체조직 헐값에 판 공공기관 北, 자강도서 IRBM 발사…일본 상공 통과해 태평양 낙하 가상화폐 뒷광고 딱 걸린 킴 카다시안, 18억원 '벌금 폭탄' 중국 상해서 대규모 한국관광 설명회 열린다 아모레 '유커 모시기' 총력…中 백화점 관계자 팸투어 초청 '바다 위 호텔'…6천명 태운 초대형 크루즈 인천항 첫 입항 유커 잡기 위해 '8'을 공략하라 충북, 유커(遊客)가 돌아온다 CBS노컷뉴스 조백근 대기자 메일 0 0 이 시각 주요뉴스 오늘의 기자 많이 본 뉴스 실시간 댓글 투데이 핫포토 오늘의 핫뉴스닫기 / 이전 다음 닫기 노컷뉴스 회사소개 사업 제휴 광고안내 콘텐츠 구매 제보 이용약관 개인정보 취급방침 편집규약 지역노컷 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 인터넷신문 등록번호 : 서울 아00030 | 등록일자 : 2005.08.30(노컷뉴스), 2007.11.05(노컷TV) 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 | ISSN : 2636-0373 노컷뉴스의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2003 CBS M&amp;C, 노컷뉴스 all rights reserved. 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 노컷스포츠 | 인터넷신문 등록번호 : 서울 아04480 | 등록일자 : 2017.04.20 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 노컷스포츠의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2003 CBS M&amp;C, 노컷스포츠 all rights reserved. 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 노컷연예 | 인터넷신문 등록번호 : 서울 아04479 | 등록일자 : 2017.04.20 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 노컷연예의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2017 by CBS M&amp;C, 노컷연예 all rights reserved.</t>
-  </si>
-  <si>
-    <t>1000만 관광객 시대 맞은 제주도 환경유지·재방문 대책마련 필요 &lt; 도민기자 마당 &lt; 사회 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 사회 최종편집 2022-10-04 (화) 08:29 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 본문영역 이전 기사보기 다음 기사보기 1000만 관광객 시대 맞은 제주도 환경유지·재방문 대책마련 필요 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 사회 도민기자 마당 1000만 관광객 시대 맞은 제주도 환경유지·재방문 대책마련 필요 기자명 김지훈 도민기자 입력 2015.09.17 10:07 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 [김지훈 도민기자]런던 혼잡 통행료 정책 등외국 성공 사례 도입 필요 1000만 관광객 시대를 맞은 제주가 쾌적한 환경을 유지하고 관광객들의 재방문을 유도하기 위해 외국의 정책을 벤치마킹하는 등 효율적인 방안을 마련해야 한다는 주문이다. 런던은 면적이 1572㎞, 인구가 863만명에 이르는 대도시로 알려져 주변에서는 혼잡한 곳으로 떠올리기 쉽다. 하지만 최근 여행을 다녀온 결과 런던은 교통 흐름이 원활하고, 주택단지 내의 골목길에서도 정체되지 않은 현상을 보였다. 이는 런던 교통국이 도심으로 진입하는 자가용에 부과하는 혼잡통행료 등이 효과를 보고 있는 것으로 하루 8파운드(한화 약 1만4500원)를 부과한다. 또 런던시는 스마트빈(Smart Bin)이라는 최첨단 쓰레기통을 보급하고 있다. 스마트빈은 많은 종류의 쓰레기를 압축해 일반적인 쓰레기통의 용량과 비교해 최대 8배의 쓰레기를 저장할 수 있고 용량이 가득 차면 해당 구청으로 정보가 전송돼 청소부가 처리하게 된다. 이로 인해 매일 점검하는데 소요되는 관리비용이 절감되는 효과를 보고 있다. 환경전문가에 따르면 쾌적한 환경이 관광객 유치를 위해 지출하는 각종 보조금이나 마케팅 비용보다 훨씬 더 관광객들을 매료시킨다. 일일 입도관광객이 4만명에 이르는 관광지인 제주도 성숙한 시민의식과 더불어 환경을 고려한 행정대책이 이뤄져야 한다는 목소리에 귀를 기울일 일이다. 김지훈 도민기자 김지훈 도민기자 webmaster@jemin.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 오늘의 운세 10월4일 (음력9월 9일) 2022년 미디어 콘테스트 부문별 최우수상 [무공침] "안전산행 위해 예방수칙 준수" [사설] 低임금 제주경제 언제까지 놔둘건가 [사설] 고령화 속도가 보내는 신호를 읽어라 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 20년 이상 아파트 33곳 '재건축' 계획 제시 2 제주 국악인들 전국대회 대상 쾌거 3 폐현수막 의상 '눈길'..."제주 탐라문화제 새바람 기대" 4 환경과 문화가 만나면, 푸르게 더 푸르게 5 저금리 갈아타기 제주 소상공인 '사각' 6 한라산 백록담 60대 응급환자...헬기 이송 7 제주도선수단 제103회 전국체전 '출전'…"메달 68개 이상 목표" 8 [시론담론]인사와 임기, 그리고 권력 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>2015년 제주도 최고 '관광명품·명장'은 누구? &lt; 제주특별자치도 &lt; 행정 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-04 09:44 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 제주형 구직청년 재난지원금 8365명 지급...19~29세 60% 제주대-창원대-목포해양대 ‘지역연계 상호발전’ 맞손 ‘인민의 정의’의 혼란: 다중 해석 횡단보도 건너던 중학생 택시 치여 보름만 숨져…60대 기사 입건 [날씨] 제주, 시간당 20mm 내외 강한 비…기온 큰 폭으로 ‘뚝↓’ 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 2015년 제주도 최고 '관광명품·명장'은 누구? 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 행정 제주특별자치도 2015년 제주도 최고 '관광명품·명장'은 누구? 기자명 이승록 기자					(leerevol@naver.com) 입력 2015.09.04 11:37 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 "제주관광명품·명장을 찾습니다"제주도는 품질이 우수하며, 부가가치가 높은 관광기념품을 찾아 제주대표 상품으로 육성하기 위해 '2015년도 제주관광명품·명장'을 선정한다고 4일 밝혔다.제주관광명품 응모자격은 제주도의 특색 및 향토성과 한국의 전통미를 반영함과 동시에 현대적인 감각이 조화를 이뤄 독창성이 있는 제품으로 공고일 현재 제주도에서 생산·제조되는 제품이어야 한다.제주관광명장은 명품으로 선정된 기념품을 생산·제조하는 자로 공고일 현재 해당분야 10년 이상 직접 종사자로, 5년 이상 제주 거주자에 한한다.출품을 원하는 자는 오는 10월6일부터 7일까지 참가 신청서와 출품작품을 제주도관광협회로 접수하면 된다.관련분야 전문가로 구성된 심사위원단의 심사와 관광객 및 도민 선호도 조사, 제주도 관광기념품개발육성위원회 심의를 거쳐 최종 선정된다.선정자에게는 각종 홍보지원과 제품개발 및 생산장려금(1000만원 이내) 지원 등의 특전이 주어진다.관광명품·명장 선정과 관련해 자세한 사항은 제주도 관광산업과(064-710-3342)나 제주도관광협회(064-741-8744)로 문의하면 된다. 이승록 기자 leerevol@naver.com 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 제주 한라산 백록담서 60대 관광객, 탈진으로 헬기 이송 2 “윤석열 정부 공공기관 혁신 계획...JDC 정원 28명 감축” 3 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 4 제주 구좌읍 평대리 단독주택서 화재…인명피해 없어 5 제주 서예가 현병찬, 문체부 선정 제41회 세종문화상 수상 6 12월 제주서 일회용컵 보증금제 개시...단독 매장 11곳은 어떻게? 7 개천절 제주, 30도 넘는 깜짝 더위...5일부터는 찬바람 8 물가는 천정부지..제주 초등돌봄 급식비는 5년 째 5000원? 9 동료 해녀 구한 의용소방대원, 전국 소방대회서 제주 위상 드높여 10 사상검증 논란 제주4.3 특별재심 68명 재판 앞둬 ‘명예회복’ 도민사회 주목 1 미덥지 못한 ‘관광청 제주 설치’ 尹정부 공약, 용두사미 되나? 2 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 3 “윤석열 정부 공공기관 혁신 계획...JDC 정원 28명 감축” 4 사상검증 논란 제주4.3 특별재심 68명 재판 앞둬 ‘명예회복’ 도민사회 주목 5 동료 해녀 구한 의용소방대원, 전국 소방대회서 제주 위상 드높여 6 제주 한라산 백록담서 60대 관광객, 탈진으로 헬기 이송 7 제주 서예가 현병찬, 문체부 선정 제41회 세종문화상 수상 8 물가는 천정부지..제주 초등돌봄 급식비는 5년 째 5000원? 9 12월 제주서 일회용컵 보증금제 개시...단독 매장 11곳은 어떻게? 10 돌아온 일상, 한층 더 책과 친숙해진 ‘2022 제주독서대전’ 1 니들 역사 잘모르자나 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ그냥 노는 날이 다 정도로 안는 거같음 ㅋㅋㅋㅋ 곰이 사람되고 그런 거야 ㅋㅋㅋ 겨레가 뭐냐? 카자흐스탄좀 갔다와 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ겨레의 뜻도 모르는 것들이 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ고조선이 뭐냐 조선 조선의 뜻이 뭐냐 ㅋㅋㅋㅋㅋㅋ주스야 ㅋㅋㅋ 달 태양 금성 왜 조선이라고 하는줄을 모른 ㅋㅋ그냥 개천절은 노는날 정도임 마늘 처먹은 곰탱이 이러구 알고 있음 ㅋㅋㅋㅋ 조선의 뜻을 알아야 되는거 임 우리의 뿌리 을 알아야되는것임 그런 놈들이 43을 안다고 하냐 ㅋㅋㅋ 우리가 케레이 다 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ 2 왜 이걸 제주도만 시범으로 빠따 맞아야 하나? 만만한 제주도라서 그런가? 시범시범시범 3 제주도의원들은 할일이 없겠음 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ제주자치도인지 서울자치도인지 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ 4 아래 댓처럼 일 못하는 고문관들이 회사와 사회발전의 암이다 이런새끼들의 특징 1. 기본 계산도 못한다 2. 좆도 모르는 일에 나대면서 아는척은 존나게 한다 3. 그런 주제에 양심도 도덕도 없어서 여러사람 눈 찌푸리게 하는걸 지만 모른다 5 급식비가 얼마냐 가 아니라 급식 수준이 봐야 되는거지 ㅋㅋㅋㅋㅋㅋ 급식은 처먹으면서 애들 급식수준이 떨어지면 조사해 보던가 하지 무조건 돈돈하는 건니들 같어 ㅋㅋㅋ 물가가 오르던 말던 급식이 애들 불만 없이 잘되면 그만이지 기준없이 잘만 하는 지역도 많쿠만 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ이런 미친 돈 또라이들 6 썬오브 비치 7 당시 기준에서 재판해야한다. 남로당에 부역한 전원에 대해 엄중한 책임을 부과하고 잘못을 인식시켜야 한다. 용서는 사실인정과 반성이 있어야 가능하다. 당시 재판이 가장 사실에 부합하다. 8 1948년 한림동국민학교에서 조선민주애국청년동맹대회 때 사회를 보아 명예의장으로 남조선노동당 박헌영을 추대함과 동시에 남조선노동당 박헌영 체포령 취소 요구 진정서를 미군정청사령관 하지 중장에 보내는 데 앞장을 선 사람을 무죄를 오늘 선고한다면 대한민국의 정체성은 더욱 더 흔들린다. 9 4.3위원회 폐지법안 원희룡, 제주의 아픔 말할 자격 있나?" 윤철수 headlinejeju@headlinejeju.co.kr 승인 2014.03.21 김우남, "원희룡 4.3위원회 폐지법안 공동발의" 지난 2008년 한나라당 의원들을 중심으로 제주4.3위원회 폐지를 내용으로 하는 제주4.3특별법 개정안의 국회 제출당시 새누리당 원희룡 제주도지사 예비후보도 공동발의한 사실이 확인돼 논란이 일고 있다. 10 묻지도 따지지도 말라 하니 참 ㅋㅋㅋㅋㅋ니들이 말이통하는 세상인게 부럽다 ㅋㅋㅋㅋㅋㅋ예를 들면 역사의 증거는 가물거리고 주변 생존자가 있어 울며 불며 뭐라 하니 동요된 여론과 뭐 잇딴 감성파리로 법을 뒤집는다 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 사상검증 논란 제주4.3 특별재심 68명 재판 앞둬 ‘명예회복’ 도민사회 주목 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 이듸 일름 적읍서 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 제주 제2공항, 전·현지사 머리 맞대라 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 어룬 방둥인 애기 이상 엇나 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 있을 법하지 않은, 낯선 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 올리 추석 멩질상엔 고사리육개장 올렴수다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도관광협회, 사랑나눔봉사단 다문화가정 봉사활동 &lt; 포토뉴스 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [급등주]칩스앤미디어 주가 21% 상승, 모빌아이 IPO 기대감 [급등주]오토앤 주가, 현대글로비스 美 중고차 시업 추진에 23% 강세 [급등주] 일진홀딩스 상승, 롯데케미칼의 일진머티리얼즈 인수 영향 [급등주] SK네트웍스우 상승, 자사주 취득 공시 영향받나 [급등주]오픈엣지테크놀로지 주가, 상장 후 부진 만회하나 '22% 급등' [급등주] KR모터스 상승, 서울시 대기질 개선 대책 발표 [급등주]라닉스 주가 29% 상한가, 자율주행 관련주 각광 [특징주] 국전약품 주가 하락 '샤페론 수혜 끝났나' [특징주] 캐스텍코리아 주가 상한가 '포르쉐 상장 시총 4위' [특징주] 오성첨단소재 주가 상한가 '상장적격성 실질심사 제외' 2022-10-04 10:00 (화) [속보] 영동고속도로 덕평휴게소 출구 옆 차량화재 삼척시 인근서 산불발생...헬기 3대 투입 진화 대구시 동구 율암동 섬유공장에서 화재발생 인천 가정동 빌라서 불…"40대 남성 중상" 횡성군 비닐하우스서 화재…4명 부상 강원 양양 산불발생... 36분만에 진화완료 군산해경, 해상에 추락한 낚시객 등 구조 해경, 야간 갯바위 고립 낚시객 구조 원주서 택시·승용차 충돌...2명 부상 [속보] 경기 버스 노사 협상 타결 파업 철회...버스 정상운행 춘천 석사동 사무실 화재…인명피해 없어 수원 장안동 주택서 불…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 사랑나눔봉사단 다문화가정 봉사활동 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 포토뉴스 제주도관광협회, 사랑나눔봉사단 다문화가정 봉사활동 기자명 고병수 기자 입력 2015.09.03 19:04 수정 2015.09.03 19:07 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 ▲ (제주=국제뉴스) 고병수기자 = 제주특별자치도관광협회 사랑나눔봉사단(단장 강인철)은 제주시 다문화가족지원센터와 연계해 2일 다문화가정 40여명과 함께 생각하는 정원 관람과 낙천아홉굿마을 보리피자 만들기 체험 등 1일 제주 관광 행사를 실시했다. 관광협회 사랑나눔봉사단은 앞으로 지역 소외계층 및 장애인 등 관광약자를 대상으로 제주관광 체험 기회를 지속 지원해 나갈 계획이다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 제니♥뷔 열애설, 화장실 반신욕 사진까지 유출? 이효리 이상순 임신 소식 언제 '불타오르지 않아' 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 김종민♥신지 결혼설, 축하 꽃다발 선물 누가? '특종세상' 배우 김태형, 10년 전 아들 잃고 충격...나이·근황은? 김종민♥신지 결혼설 해명 후 물오른 미모 '소멸될 듯' 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 제니♥뷔 열애설, 화장실 반신욕 사진까지 유출? 주요기사 제네시스, KPGA '2022 제네시스 챔피언십' 6일 개막 [급등주]칩스앤미디어 주가 21% 상승, 모빌아이 IPO 기대감 대전 0시 뮤직페스티벌, 7일부터 10일까지 대흥동 원도심에서 개최 전남도, 문화재 활용사업 7개 분야 70억 확보 천안시시설관리공단 재활용선별장, 폐플라스틱 순환경제체계 전환 앞장 [급등주]오토앤 주가, 현대글로비스 美 중고차 시업 추진에 23% 강세 최신뉴스 제네시스, KPGA '2022 제네시스 챔피언십' 6일 개막 [급등주]칩스앤미디어 주가 21% 상승, 모빌아이 IPO 기대감 대전 0시 뮤직페스티벌, 7일부터 10일까지 대흥동 원도심에서 개최 전남도, 문화재 활용사업 7개 분야 70억 확보 천안시시설관리공단 재활용선별장, 폐플라스틱 순환경제체계 전환 앞장 포토뉴스 제네시스, KPGA '2022 제네시스 챔피언십' 6일 개막 [급등주]칩스앤미디어 주가 21% 상승, 모빌아이 IPO 기대감 대전 0시 뮤직페스티벌, 7일부터 10일까지 대흥동 원도심에서 개최 천안시시설관리공단 재활용선별장, 폐플라스틱 순환경제체계 전환 앞장 인기뉴스 1 [단독] 세종시, 태권도사범이 여중생 상대 '좋아한다'며 수차례 성관계 2 안철수, 당 대표가 돼야 하는 이유? 3 유럽 증시, 개장 직후 폭락···FTSE 100 1.6%· DAX 1.3% '뚝' 4 사천시 '항공우주청' 조기 설립 광폭행보 5 안양 호계동 아파트 공사장서 불…인명피해 없어 6 [속보] 영동고속도로 덕평휴게소 출구 옆 차량화재 7 러시아 우크라이나 전쟁···美 "유럽 주둔 미군 우발 상황에 대비" 8 우크라이나 러시아 전쟁, 파괴된 탱크 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도를 대표할 관광명품·명장 어디있나요? &lt; 관광 &lt; 생활경제 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-04 09:43 (화) 본문영역 이전 기사보기 다음 기사보기 제주도를 대표할 관광명품·명장 어디있나요? 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 생활경제 관광 제주도를 대표할 관광명품·명장 어디있나요? 기자명 최병근 기자 입력 2015.09.04 10:51 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주도, ‘2015년 제주관광명품·명장 선정’...10월6·7일 접수 [제주도민일보=최병근 기자] 제주도가 올해를 대표할 제주관광 명품과 명장을 찾아 나선다.제주도는 ‘2015년도 제주관광명품·명장 선정’을 연다고 4일 밝혔다. 이 행사는 제주의 특성과 향토성을 잘 나타내고 품질이 우수한 관광기념품을 찾아 제주대표 상품으로 키우기 위해 마련된 것이다.제주관광명품 공모대상과 응모자격은 제주도의 특색 및 향토성과 한국의 전통미를 반영함과 동시에 현대적인 감각이 조화를 이루어 독창성이 있는 제품이다. 공고일 현재 제주도에서 생산, 제조되는 제품이어야 한다.제주관광명장은 제주관광명품으로 선정된 기념품을 생산 제조하는 도민으로 공고일 현재 해당분야에서 10년이상 직접 종사자로 일해야 한다. 아울러 도내에서 5년 이상 살아야 한다.출품을 원하는 도민은 10월 6일부터 10월 7일까지 참가신청서와 출품작품을 제주도관광협회로 접수하면 된다.작품심사는 관련분야 전문가로 구성된 심사위원단의 심사와 관광객 및 도민 선호도 조사, 제주도 관광기념품개발육성위원회 심의를 거쳐 선정된다. 선정된 자에게는 각종 홍보지원과 제품개발 및 생산장려금(1천만원 이내)지원 등의 특전이 이뤄진다,자세한 사항은 제주도 관광산업과(064-710-3342)와 제주도관광협회(064-741-8744)로 문의하면 된다.한편 지난해 제주관광명품·명장으로는 ‘7첩 반상기(안통천)’가 선정됐다. 최병근 기자 whiteworld84@hanmail.net 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 ‘미래 모빌리티’ 현실로...추자도-제주 간 드론 긴급 배송 성공 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' [단독]제주TP 5대 원장 공모...다시 재공모 수순 밟을 듯 관절 특효 '쇠무릎'…닭발과 환상 콜라보 제주 첫 전국장애인기능경기대회 폐막 제주, 부동산시장 “빨간불”...미분양·가계대출 전국 최고 ‘미래 모빌리티’ 현실로...추자도-제주 간 드론 긴급 배송 성공 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 ‘2022 제주 반려동물 문화축제’ 개막 제주 첫 전국장애인기능경기대회 폐막 오늘의 주요뉴스 [제주특별자치도의회 소식] 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 [사회일반] 해외입국자 입국 1일차 PCR 의무검사 중단 [제주특별자치도의회 소식] 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ [경제일반] 2030년 수소버스·트램 제주를 누빈다 [제주특별자치도의회 소식] 이선화 ICC 사장 후보자 인사청문 ‘배신·기회주의자’ 난타 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 '탄저균' 설마 제주 함덕에?…시료 채취 결과 '음성' 서귀포서 운행중 자동차 화재 사고 한림항서 급유중 경유 10ℓ 유출 어선 적발 제주서 맹독성 파란고리문어 발견 새벽시간 제주시 자재보관창고 화재 인기뉴스 댓글많은기사 실시간댓글 1 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 2 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 3 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 4 국힘 제주도당 "이선화 임명은 吳도정 인사참사" 5 해외입국자 입국 1일차 PCR 의무검사 중단 6 서귀포서 운행중 자동차 화재 사고 7 오영훈 지사 “사회복지예산 25%까지 확대할 것” 8 일도2동 두문이 골목마을 도시재생, 국비 공모 신청 9 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 10 ‘돈 먹는 하마’ 버스 준공영제...개선방안은? 1 이재명 대표 ‘제주4·3해결·탄소중립’ 국비 지원 약속 2 제주관광공사, 해양쓰레기 팝업전시 필터(filter/必터) 개최 1 10 월이다 약속대로 국토부는, 제2공항 확정하고 착공해라 2 친일프레임을 고집하여 국민의 의식을 그프레임안에 가둬 정권을 유지하려 몸부림치는 공산추종세력 들은 주체사상을 연구하고 고 공부하여 종교화하는 586주사파빨갱이 들 뿐이며, 작금의 민주당 의 노선이다 3 슬프고 또 슬프네요.. 친일파 청산 못했더니 이모양입니다. 그래도 민족정신은 제대로 이어가야지 이게뭡니까? 4 독립유공자 후예분. 오히려 친일을 운운하는 자들이 빨갱이로 보이는 것은 그동안 잘못 배웠기 때문입니다. 우리 헌법 전문의 "3.1운동으로 건립된 대한민국임시정부의 법통을 계승하고~"에 있듯이 우리는 일제에 저항했고 그것이 대한민국의 정신적 초석입니다. 친일 운운이 빨갱이로보인다? 진짜 친일파들이 그동안 물타기와 레드컴플렉스를 잘도 이용해 온 것이죠!! 부끄러워해야합니다. 5 아래 댓글수준하곤 쯧쯧 6 이땅에서 빨갱이들이 모두 없어질때까지 4.3은 민주당 빨갱이들이 5.18,세월호와함께 줄기차게 우려먹을것임 ㅎㅎㅎ 7 개자식아 거기는 비행기 노선이 겹처저서 않된다고 하잔아 18또라이새끼야 정신좀차려라 제주날씨 4일 제주, 출근길 강풍 동반 '가을비' 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
+    <t>추석 연휴 첫날 제주도 관광객 수 '역대 최고' &lt; 일반 &lt; 종합 &lt; 기사본문 - 이코노믹리뷰 상단영역 관리자로그인 전체메뉴 버튼 산업 금융/증권 IT/스타트업 CEO GO-ESG Life &amp; 로그인 로그인 회원가입 기사검색 검색 2022-10-11 12:11 (화) 실시간 이복현 “금융권 횡령·이상외환거래 엄중 조치” 현대엔지니어링, 브랜드 타운 ‘명륜 현대 3차 힐’ 주택 홍보관 오픈 나홀로 웃는 조선업…3분기 실적 ‘호조’ 코스피, 닷새 만에 2200선 하회…코스닥은 4%대 급락 [부고] 박찬수(한국거래소 파생상품시장본부 상무)씨 부친상 [부고] 성인모(한국금융투자협회 수석전무) 부친상 셀리버리 "코로나19 면역치료제, 美 FDA 1상 계획 승인" LS, ‘걸프협력회의’와 사업 협력 논의 신라면세점, 2022 KCSI 면세점 부문 8년 연속 1위 “올가을 맘스터치와 함께 감성 캠핑 즐기자” 본문영역 이전 기사보기 다음 기사보기 추석 연휴 첫날 제주도 관광객 수 '역대 최고' 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 추석 연휴 첫날 제주도 관광객 수 '역대 최고' 내·외국인 관광객 5만4784명 기자명 조재성 기자 입력 2015.09.27 16:12 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 추석 연휴 첫날인 26일 제주도를 방문한 관광객 수가 역대 최고를 경신한 것으로 나타났다.제주도관광협회는 27일 전날 제주를 찾은 내·외국인 관광객이 5만4784명(내국인 4만 6098명, 외국인 8686명)으로 집계됐다고 전했다. 이는 지난 5월 1일 세운 최고 기록 5만 3215명을 넘어선 수치다. 내국인관광객도 지난달 2일 최고치인 4만 4331명을 경신한 것으로 나타났다. 제주도관광협회는 ▲대체휴일 시행으로 길어진 추석 연휴기간 ▲추석 연휴 항공기 추가 투입으로 인한 항공좌석 증가 ▲중국인관광객 및 외국인관광객의 입도 회복세 등으로 관광객이 크게 늘어난 것으로 분석했다. SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 조재성 기자 jojae@econovill.com 다른기사 보기 구독신청하러 가기 경제를 리뷰, 미래를 본다 © 이코노믹리뷰 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 종합 인기뉴스 1 군비증강의 시대가 온다 2 [CEO파일] 최수연 네이버 대표 "멀티플 시너지 본격 가동" 3 키이우 곳곳 미사일 폭격..우크라 전쟁 점입가경 4 [오늘날씨] 찬바람 쌩쌩…따뜻하게 입어요 5 [오늘날씨] 중부서해안 비 시작…오후 전국으로 확대 ER포토 [ER포토]조니워커 아시아 최대 영화축제 함께한다! [ER포토]조니워커, 부산국제영화제 공식 후원 Investing.com 한국어 가 운영하는 기술적 분석 요약 위젯 하단영역 하단메뉴 회사소개 채용정보 기사제보 광고문의 윤리강령 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 UPDATED. 2022-10-11 12:11 (화) 매체정보 서울특별시 종로구 삼일대로 469 3F, 이코노믹리뷰 (경운동,서원빌딩) 대표전화 : 02-6321-3000 팩스 : 02-6321-3001 기사문의 : 02-6321-3042 광고문의 : 02-6321-3012 등록번호 : 서울 아 03560 발행인·편집인 : 주태영 광고마케팅국 : 고동훈 청소년보호책임자 : 김상곤 이코노믹리뷰의 모든 콘텐츠는 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 이코노믹리뷰. All rights reserved. 위로 전체메뉴 전체기사 산업 일반 전자 자동차 항공/조선/철강 에너지/화학/정유 중소기업 금융/증권 일반 1금융 2금융 증권 IT/스타트업 일반 IT/스타트업 통신 게임 블록체인 건설/부동산 일반 건설 부동산 생활경제 일반 제약/바이오 일반 종합 일반 ER포토 인사/부고 오피니언 일반 편집국에서 기자수첩 전문가칼럼 라이프 일반 서평 운세 타임피스 OTT픽 플레이G 헬스케어 IT여담 커버스토리 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>가족독채펜션 여행, 중문관광단지와 가까운 제주도펜션 ‘하바다통나무집’ 검색 본문 바로가기 회사정보 바로가기 2022.10.11 (화) 실시간뉴스 play puase 실시간 뉴스열기 실시간 뉴스 닫기 실시간뉴스 기사제보 상품소개 노동신문 CONNECT 서비스 해피펫 통합검색 통합검색 통합검색 기자명 제목+내용 제목 내용 검색 정치 국회ㆍ정당 대통령실 총리ㆍ감사원ㆍ위원회 국방ㆍ외교 통일 정치일반 북한 정치ㆍ외교 군사 경제 사회 문화ㆍ스포츠 남북교류ㆍ협력 경제 정책 일반동향 건설ㆍ부동산 농식품 사회 법원ㆍ검찰 사건ㆍ사고 교육 복지ㆍ인권 노동 환경 날씨ㆍ재해 일반 인물 여성가족 IT/과학 모바일 통신ㆍ뉴미디어 인터넷ㆍ플랫폼 IT일반 보안ㆍ해킹 컴퓨터 게임ㆍ리뷰 과학일반 금융/증권 금융일반 금융정책 통화정책 은행 금융투자 보험 카드 핀테크 증권일반 산업 산업일반 재계 전기전자 자동차산업 에너지ㆍ중공업 유통 생활경제 중기ㆍ창업 패션 뷰티 호텔ㆍ관광 의료 식음료 헬스케어 제약ㆍ바이오 취업ㆍ채용 지방 행정자치 서울 경기 인천 강원 세종ㆍ충북 대전ㆍ충남 전북 광주ㆍ전남 대구ㆍ경북 부산ㆍ경남 울산 제주 국제 국제경제 미국ㆍ캐나다 동북아 아시아ㆍ호주 유럽 중동ㆍ아프리카 국제기구 피플&amp;피플 지구촌화제 일반 중남미 생활/문화 공연ㆍ전시 책 종교 문화정책 문화일반 건강정보 여행·레저 운세ㆍ명언 도로ㆍ교통 반려동물 자동차생활ㆍ시승기 음식ㆍ맛집 연예 연예가화제 방송ㆍTV 영화 음악 해외연예 인터뷰 스포츠 야구 해외야구 축구 해외축구 골프 종목일반 농구 배구 여행 국내 해외 바이크 관광 레저 호텔ㆍ크루즈 이벤트 포토 영상 이슈 펫카드 그래픽뉴스 인사 부고 페이스북 트위터 유튜브 인스타그램 네이버 포스트 해피펫 N트래블 뉴스1바이오 N스타일 노동신문 히든메뉴 닫기 글로벌 메뉴 열기 정치북한사회경제IT/과학금융/증권산업산업일반재계전기전자자동차산업에너지ㆍ중공업유통생활경제중기ㆍ창업패션뷰티호텔ㆍ관광의료식음료헬스케어제약ㆍ바이오취업ㆍ채용지방국제생활/문화연예스포츠여행TVBBC 홈 &gt; 산업 &gt; 호텔ㆍ관광 가족독채펜션 여행, 중문관광단지와 가까운 제주도펜션 ‘하바다통나무집’ (이슈팀) 노수민 기자					| 2015-09-25 14:22 송고 댓글 공유 카카오톡으로 공유하기 페이스북으로 공유하기 트위터로 공유하기 이메일로 공유하기 url 복사 축소/확대 가 가 가 가 가 인쇄 © News1 천혜의 풍광과 이국적인 정취를 자랑하는 제주도는 국내 여행지 1순위로 꼽힌다. 그중에서도 서귀포시 중문관광단지 인근은 제주도의 ‘메카’라는 애칭을 얻을 정도로 쇼핑, 오락, 휴양, 문화, 숙박시설 등 오감을 만족시키는 다양한 즐길 거리와 볼거리로 가득해 친구, 가족, 커플 등 관광객들이 많아 찾는 관광지 중 하나다.중문관광단지 내 천지연폭포는 깊어가는 가을을 만끽하기에 더없이 좋은 곳이다. 쏟아지는 폭포와 제주도 붉은 단풍을 바라보며 일상에 찌든 스트레스를 해소하기에 적격이다.자연의 장엄함을 느낄 수 있는 주상절리는 천연기념물로 지정돼 있으며, 돌기둥 사이로 파도가 부딪쳐 하얀 포말이 부서지는 모습이 장관을 이루기도 해, 제주여행에서 꼭 방문해야 할 필수 코스로도 통하고 있다.가족 단위로 왔다면 아이와 함께 자연체험이 가능한 여미지식물관부터, 테디베어박물관, 퍼시픽랜드를 구경할 수 있고, 유명 카지노, 국제 컨벤션센터, 면세점 등 풍성한 관광시설을 갖추고 있어 여행객들로부터 최고의 관광지로 손꼽히고 있다.이러한 중문관광단지 주변, 바당올레길인 대평리에 위치한 가족독채펜션으로 유명한 하바다통나무집펜션이 여행객들의 눈길을 끌고 있다. 고즈넉한 제주의 풍경과 가을의 제주 바다 그리고 통나무집이 어우러져 한 폭의 그림처럼 자리 잡고 있기 때문.통나무집 17평 3채와 목조주택 23평 3채로 지어진 해당 펜션은 전 객실 독채 복층펜션으로 주인부부가 직접 상주하며 관리하는 서귀포펜션 중 하나다. 가족독채펜션인 만큼 타 관광객들의 소음에 방해받지 않고 제주도 가을을 느낄 수 있다. 통나무와 목재로 지어져, 숲 속에서 따로 산림욕을 하지 않아도 산림욕 효과와 피톤치드 효과를 느낄 수 있고 주인 부부가 직접 관리해 쾌적하고 안락한 객실 내부를 자랑한다. 투숙객들의 안전과 방역을 위해 세스코, 세콤 등과 같은 안전시설도 갖췄다.바당올레길(올레길 8번코스)에 위치하고 있어 가을 바다 산책을 오붓하게 즐길 수도 있으며 전 객실에서 제주의 푸른 바다를 감상할 수 있는 바닷가펜션이다. 또한 제주 바다에서 직접 잡은 신선한 해산물로 특별한 저녁식사를 즐길 수 있도록 각 동마다 바비큐 취사시설도 갖춘 제주펜션으로 주목받고 있다.하바다통나무집펜션 서언아 대표는 "제주 최대 관광명소인 중문관광단지와 승용차로 10분 거리에 위치에 있는 중문펜션으로, 많은 여행객들이 찾고 있다"면서 "올가을 가족여행을 계획하고 있다면 다양한 관광명소와 가깝고 아늑한 제주도 가족독채펜션을 추천한다"고 말했다. ebiz@ &lt;저작권자 © 뉴스1코리아, 무단전재 및 재배포 금지&gt; 이런 일&amp;저런 일 김수미 "김용건 늦둥이 아들 지 아범 딱 닮아" 공효진♥케빈오, 뉴욕서 결혼식…정려원 참석 클럽 앞 멈춘 소방차 '비키니 여성' 하차…왜? 강민경, 65억 건물로 쇼핑몰 이사 "직원 눈물" 신혜성, 도난차량서 음주측정 거부하다 체포 김태희, 직접 올린 근황은…독보적 미모 오늘의 핫 포토 꿈새김판 가을편 '지금이 가을이에요' '서울에서 발생한 총기사고, 경찰 조사 중' 한일 국장협의 참석하는 후나코시 다케히로 일본 외무성 국장 [국감] '감사원 감사중지' 모더나 2가 백신 접종하는 시민 알록달록 뜨개옷 입은 나무들 실종된 가을 탭메뉴 스포츠 연예 스타일 스포츠 '2년 간 11승' 박민지, 신지애 기록 넘본다…대상-상금왕 2연패 정조준 IBK기업은행, 여자부서 가장 먼저 외인 교체…산타나 다시 영입 결국 끝까지 온 3위 싸움…KT, 반드시 이겨야 하는 이유 '시즌 5승' 박민지, 세계랭킹 2계단 올라 16위…고진영 1위 유지 연예 유진·은지원·황제성, '뜨겁게 안녕' 호스트 확정…10월 말 첫방 바타, 화제의 '새삥' 춤 일부 표절?…에이티즈 안무가, 의혹 제기 엑소 첸, 31일 새 미니앨범 '사라지고 있어' 발매…3년 만 솔로 컴백 공효진♥케빈오, 11일 미국 뉴욕서 결혼식…10세 연상연하 부부 스타일 최시원, 완벽 슈트핏에 넘치는 여유..."내 레전드 인물은 이수만" [N화보... 아이유·손석구, 커플 화보...의외의 달달 눈빛 교환 [N화보] 잔나비 최정훈, 바가지 헤어+농염 눈빛…자유분방 매력 [N화보] 레드벨벳 슬기, 궁전에 사는 공주님 비주얼 '세련' [N화보] 이전 다음 회사소개 개인정보취급방침 뉴스1 모바일 제휴광고 콘텐츠 판매 기사제보 고충처리 청소년 보호정책 지방본부 바로가기 경기 인천 강원 세종· 충북 대전· 충남 전북 광주· 전남 대구· 경북 부산· 경남 울산 제주 대표이사/발행인: 이백규 | 편집인: 강호병 | 주소: 서울시 종로구 종로 47 (공평동,SC빌딩17층) | 사업자등록번호: 101-86-62870 고충처리인: 김성환 | 통신판매업신고: 서울종로 0676호 | 등록일: 2011.05.26 | 제호: 뉴스1코리아 문의: 02-397-7000, webmaster@news1.kr Brand Promotional Section 삼성 홍보관 새창열기 현대 홍보관 새창열기 우수 컨텐츠 마크 확인페이지 새창열기 2016 웹 어둬드 방송 신문분야 최우수상 수상 Copyright (c) News1 Korea. All rights reserved. 모바일 버전</t>
+  </si>
+  <si>
+    <t>제주도 농산어촌 활용한 관광상품 나오나? &lt; 경제일반 &lt; 생활경제 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-11 11:18 (화) 본문영역 이전 기사보기 다음 기사보기 제주도 농산어촌 활용한 관광상품 나오나? 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 생활경제 경제일반 제주도 농산어촌 활용한 관광상품 나오나? 기자명 최병근 기자 입력 2015.09.20 15:30 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 관광협회, 광광상품 개발중...여행상품 전문가 ‘팸투어’ ▲ 제주도관광협회가 지난 17일~18일까지 낙천마을에서 ‘여유있는 제주 만나기 - 쉼캠프 in 낙천’ 팸투어를 도외지역 여행상품 전문가들을 초청해 열고  기념촬영을 하고있다.[제주도민일보=최병근 기자] 제주도내 농산어촌을 활용한 관광상품이 개발될 전망이다.제주도관광협회(회장 김영진)는 도민체감형 제주관광기반을 마련하고자 지난 2월부터 제주도내 농산어촌 마을기반 1‧2‧3차 산업 융복합 관광상품 개발 사업을 추진 중에 있다고 20일 밝혔다.관광협회는 관련 업계, 언론, 행정 등을 중심으로 ‘제주마을여행 지원 네트워크’를 구성하고 마을자원 기초조사, 현지조사, 심층인터뷰를 진행해 왔다.이 결과 명도암참살이체험마을, 낙천아홉굿의자마을, 예래생태마을(하예어촌체험마을)을 시범마을로 최종 선정했다. 마을의 특성을 살린 다양한 체험프로그램을 공동 개발해 현재 판매‧운영 중에 있다.이벤트형 상품으로 기획된 ‘여유있는 제주 만나기 - 쉼캠프 in 낙천’은 낙천마을에서 도외지역 여행상품 전문가들을 초청해 17일 ~ 18일까지 팸투어 형식으로 진행됐다.낙천아홉굿의자마을의 ‘의자’콘텐츠와 ‘리트릿 디톡스 캠프(Retreat Detox Camp)'를 접목한 제주형 웰빙캠프를 테마로 참가자들은 낙천 농산물을 활용한 수확체험, 먹거리 체험을 비롯한 마을 잣길 걷기, 힐링 요가 및 로컬푸드를 활용한 강연과 로푸드 레시피 시연 등 낙천마을 내 주요 인프라를 연계한 프로그램들을 중심으로 쉼, 힐링, Slow 등의 콘셉트에 맞추어 제주관광 기회를 제공받았다.뿐만 아니라 환상숲 곶자왈, 생각하는 정원, 예래생태마을 등을 방문해 제주 생태자원을 소개받고 탐방하는 시간 또한 가졌다.한편 참가자들의 최근 여행트렌드 및 전문 지식을 반영하고 다양한 문화적 접근을 통해 향후 관광상품화 가능성에 대하여 점검하는 시간을 가졌다.참가자들은 “이색적인 아이템과 마을이라는 장소의 접목을 통해 다양한 문화콘텐츠 양성의 가능성을 엿보았고, 콘텐츠 보강 및 동기부여를 위한 스토리텔링 등을 보완해 마을 상품을 출시할 수 있도록 적극 지원하겠다”는 의사를 밝혔다.제주도관광협회 관계자는 “본 상품 개발에 필요한 인적 네트워크 확보 등 적극적인 마케팅 지원으로 관광객들을 마을로 유치할 수 있도록 활성화에 더욱 박차를 가하겠다”고 밝혔다. 최병근 기자 whiteworld84@hanmail.net 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 제주에서 드론으로 4일간 피자 배달나서 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 해외입국자 입국 1일차 PCR 의무검사 중단 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 국힘 제주도당 "이선화 임명은 吳도정 인사참사" '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 제주개발공사 주최 ‘제12회 제주물 세계포럼’ 개막 제주관광공사 "메타버스에서 만나는 제주 "크리에이터 공모전 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 오늘의 주요뉴스 [자치행정] ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 [경제일반] 제주에서 드론으로 4일간 피자 배달나서 [사회일반] 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ [관광] 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 [정치일반] 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 한림읍 월령리 게스트하우스서 화재 애월읍 광령리에서 창고 화재 한림서 수영 중 파도에 떠밀려가던 男 구조 조천읍 함덕에서 숙박시설 화재 서귀포 비닐하우스 화재…인명피해 없어 인기뉴스 댓글많은기사 실시간댓글 1 제주에서 드론으로 4일간 피자 배달나서 2 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 3 40년 만 미국 덮친 인플레이션...제주경제 돌파구는? 4 제주시, 투기 목적 농업법인에 “칼 빼” 5 제주지방기상청, 9월 태풍 폭우로 얼룩져…고온 동반 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 8 ‘금호건설 컨소시엄’ 제주하수처리장 현대화사업 첫 우위 9 ‘대한민국 드론 메카’ 제주서 드론산업 발전방안 논의 10 내달 24일부터 1회용품 종이컵, 빨대 등도 제공·사용금지 1 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 2 ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 3 제주시 3층 상가건물 화재…전기적 요인 추정 4 “오영훈 취임 100일 기자회견, 미래도 희망도 보이지 않아” 5 제주시, 투기 목적 농업법인에 “칼 빼” 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 제주에서 드론으로 4일간 피자 배달나서 1 악수하면 처 웃을ㄸㅐ냐 민개당아 지역 경제 좀 활성화 시켜라 ㅅㅂ 2 공항건설도 거부한 민주당 놈에게 바랄걸 바래라 3 신공항이나 만들어라 하는짓 보면 개 가 굴러가며 웃겠다 4 제2공항건설하여 서귀시민 불편해소하자 비행기타러 제주공항갈때는 욕이절로나온다 5 개소리 설레발 떨지말구 효과없이 불필요한 "과속방지턱" 이나 절반 없애라 그래야 차두 안망가지고 사고도 덜난다 선진국에서 는 방지턱 없애는것이 추세다 자슥아 6 이제 하늘도 안심할 수 있는 공간이 아닌건가... 웽웽웽..... 언제 떨어질지 몰라 이리저리 피하느라 힘들것네. 7 진작에 했어야지. 이제라도 정신차렸으니 철저히 조사해 불법이 있으면 엄중한 벌을 주기바람 제주날씨 11일 제주, 당분간 쌀쌀해…한라산에는 서리 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 제주관광인 한마음대회 성황 검색 본문 바로가기 회사정보 바로가기 2022.10.11 (화) 실시간뉴스 play puase 실시간 뉴스열기 실시간 뉴스 닫기 실시간뉴스 기사제보 상품소개 노동신문 CONNECT 서비스 해피펫 통합검색 통합검색 통합검색 기자명 제목+내용 제목 내용 검색 정치 국회ㆍ정당 대통령실 총리ㆍ감사원ㆍ위원회 국방ㆍ외교 통일 정치일반 북한 정치ㆍ외교 군사 경제 사회 문화ㆍ스포츠 남북교류ㆍ협력 경제 정책 일반동향 건설ㆍ부동산 농식품 사회 법원ㆍ검찰 사건ㆍ사고 교육 복지ㆍ인권 노동 환경 날씨ㆍ재해 일반 인물 여성가족 IT/과학 모바일 통신ㆍ뉴미디어 인터넷ㆍ플랫폼 IT일반 보안ㆍ해킹 컴퓨터 게임ㆍ리뷰 과학일반 금융/증권 금융일반 금융정책 통화정책 은행 금융투자 보험 카드 핀테크 증권일반 산업 산업일반 재계 전기전자 자동차산업 에너지ㆍ중공업 유통 생활경제 중기ㆍ창업 패션 뷰티 호텔ㆍ관광 의료 식음료 헬스케어 제약ㆍ바이오 취업ㆍ채용 지방 행정자치 서울 경기 인천 강원 세종ㆍ충북 대전ㆍ충남 전북 광주ㆍ전남 대구ㆍ경북 부산ㆍ경남 울산 제주 국제 국제경제 미국ㆍ캐나다 동북아 아시아ㆍ호주 유럽 중동ㆍ아프리카 국제기구 피플&amp;피플 지구촌화제 일반 중남미 생활/문화 공연ㆍ전시 책 종교 문화정책 문화일반 건강정보 여행·레저 운세ㆍ명언 도로ㆍ교통 반려동물 자동차생활ㆍ시승기 음식ㆍ맛집 연예 연예가화제 방송ㆍTV 영화 음악 해외연예 인터뷰 스포츠 야구 해외야구 축구 해외축구 골프 종목일반 농구 배구 여행 국내 해외 바이크 관광 레저 호텔ㆍ크루즈 이벤트 포토 영상 이슈 펫카드 그래픽뉴스 인사 부고 페이스북 트위터 유튜브 인스타그램 네이버 포스트 해피펫 N트래블 뉴스1바이오 N스타일 노동신문 히든메뉴 닫기 글로벌 메뉴 열기 정치북한사회경제IT/과학금융/증권산업지방행정자치서울경기인천강원세종ㆍ충북대전ㆍ충남전북광주ㆍ전남대구ㆍ경북부산ㆍ경남울산제주국제생활/문화연예스포츠여행TVBBC 홈 &gt; 지방 &gt; 제주 제주도관광협회, 제주관광인 한마음대회 성황 (제주=뉴스1) 현봉철 기자					| 2015-09-20 17:57 송고 댓글 공유 카카오톡으로 공유하기 페이스북으로 공유하기 트위터로 공유하기 이메일로 공유하기 url 복사 축소/확대 가 가 가 가 가 인쇄 19일 제주대학교에서 2015 제주관광인 한마음대회가 열려 메르스 여파로 위축된 제주관광의 재도약을 다짐했다.© News1 제주특별자치도관광협회(회장 김영진)는 지난 19일 제주대학교 대운동장에서 ‘2015 제주관광인 한마음대회’를 개최했다고 20일 밝혔다.이날 행사는 올해 중동호흡기증후군(MERS·메르스) 여파로 흔들렸던 지역 관광인들을 격려하고 재도약을 다짐하기 위해 마련됐다. 이날 대회에서는 ‘제42회 세계 관광의 날’을 기념해 관광 발전에 기여한 관광 진흥 유공자에게 표창이 수여되는 한편 제주 방문 대고객 환대서비스·선진관광질서 실천을 위한 결의대회와 회원사 자녀 장학금 전달식이 진행됐다.또 족구, 줄다리기, 단체줄넘기, 이어달리기 등 친선경기와 함께 관광 가족 화합게임과 같은 각종 체험행사가 이어졌다.이와 함께 제주도관광협회 외식업분과(위원장 부동석)의 관광발전기금 전달과 더불어 제주도관광협회 사랑나눔봉사단의 활동 모습 등을 담은 전시가 열려 눈길을 끌었다. hbc@ &lt;저작권자 © 뉴스1코리아, 무단전재 및 재배포 금지&gt; 핫뉴스 이지현 "돌싱 둘째남편 시댁서 아이들 거부…살림 못 합쳤다" 선우은숙, 4살 연하 유영재 아나운서와 결혼 "최근 혼인신고" 안현모, 재혼언급 "원하는 삶 살아줄 女 만나"…라이머 당혹 한동훈 어록 출판사 "韓, 거부땐 제작 중단…아무말 없었다" '남궁민♥' 진아름, 화사한 웨딩드레스 자태 "예쁘게 살 것" 김태희, 직접 올린 근황은…독보적 미모 오늘의 핫 포토 꿈새김판 가을편 '지금이 가을이에요' '서울에서 발생한 총기사고, 경찰 조사 중' 한일 국장협의 참석하는 후나코시 다케히로 일본 외무성 국장 [국감] '감사원 감사중지' 모더나 2가 백신 접종하는 시민 알록달록 뜨개옷 입은 나무들 실종된 가을 탭메뉴 스포츠 연예 스타일 스포츠 '2년 간 11승' 박민지, 신지애 기록 넘본다…대상-상금왕 2연패 정조준 IBK기업은행, 여자부서 가장 먼저 외인 교체…산타나 다시 영입 결국 끝까지 온 3위 싸움…KT, 반드시 이겨야 하는 이유 '시즌 5승' 박민지, 세계랭킹 2계단 올라 16위…고진영 1위 유지 연예 유진·은지원·황제성, '뜨겁게 안녕' 호스트 확정…10월 말 첫방 바타, 화제의 '새삥' 춤 일부 표절?…에이티즈 안무가, 의혹 제기 엑소 첸, 31일 새 미니앨범 '사라지고 있어' 발매…3년 만 솔로 컴백 공효진♥케빈오, 11일 미국 뉴욕서 결혼식…10세 연상연하 부부 스타일 최시원, 완벽 슈트핏에 넘치는 여유..."내 레전드 인물은 이수만" [N화보... 아이유·손석구, 커플 화보...의외의 달달 눈빛 교환 [N화보] 잔나비 최정훈, 바가지 헤어+농염 눈빛…자유분방 매력 [N화보] 레드벨벳 슬기, 궁전에 사는 공주님 비주얼 '세련' [N화보] 이전 다음 회사소개 개인정보취급방침 뉴스1 모바일 제휴광고 콘텐츠 판매 기사제보 고충처리 청소년 보호정책 지방본부 바로가기 경기 인천 강원 세종· 충북 대전· 충남 전북 광주· 전남 대구· 경북 부산· 경남 울산 제주 대표이사/발행인: 이백규 | 편집인: 강호병 | 주소: 서울시 종로구 종로 47 (공평동,SC빌딩17층) | 사업자등록번호: 101-86-62870 고충처리인: 김성환 | 통신판매업신고: 서울종로 0676호 | 등록일: 2011.05.26 | 제호: 뉴스1코리아 문의: 02-397-7000, webmaster@news1.kr Brand Promotional Section 삼성 홍보관 새창열기 현대 홍보관 새창열기 우수 컨텐츠 마크 확인페이지 새창열기 2016 웹 어둬드 방송 신문분야 최우수상 수상 Copyright (c) News1 Korea. All rights reserved. 모바일 버전</t>
+  </si>
+  <si>
+    <t>추석에 제주도로 크루즈 관광객 2만명 들어온다 &lt; 관광 &lt; 생활경제 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-11 11:18 (화) 본문영역 이전 기사보기 다음 기사보기 추석에 제주도로 크루즈 관광객 2만명 들어온다 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 생활경제 관광 추석에 제주도로 크루즈 관광객 2만명 들어온다 기자명 최병근 기자 입력 2015.09.20 10:00 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 25일 마리너호 필두로 국제크루즈선 8척 제주항 통해 입도 [제주도민일보=최병근 기자] 2만여명의 관광객이 국제크루즈선을 타고 추석연휴 제주도로 들어온다.20일 제주도에 따르면 추석 연휴기간인 9월 25일 마리너호(13만8000톤, 바하마 선적)를 필두로 30일까지 외국인 관광객 약 2만여명이 탑승한 국제크루선 8척이 제주항으로 들어온다.이에따라 제주도는 연휴 기간 중에도 항만순찰선 ‘만덕호’(35톤/15노트/60마력)의 항만운영 비상운영반을 편성해 모든 크루즈선에 대해 안전한 입출항과 접안을 지원한다.한편 메르스 영향으로 크루즈 관광객은 9월 16일 현재 185회 41만5653명으로 전년대비 11% 줄어든 상태다. 하지만 메르스 종식 선언 이후 꾸준한 증가를 보이고 있어 올해는 전년대비 10% 증가한 290회 65만명이 제주를 찾을 것으로 전망하고 있다.제주도 관계자는 “올해 7월에 국제여객터미널을 이미 준공했고 서귀포 크루즈터미널도 2017년 상반기 준공하면 제주도에는 국제 크루즈선 4척이 동시에 접안할 수 있는 시설을 갖추게 된다”고 밝혔다. 최병근 기자 whiteworld84@hanmail.net 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 제주에서 드론으로 4일간 피자 배달나서 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 해외입국자 입국 1일차 PCR 의무검사 중단 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 국힘 제주도당 "이선화 임명은 吳도정 인사참사" '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 제주개발공사 주최 ‘제12회 제주물 세계포럼’ 개막 제주관광공사 "메타버스에서 만나는 제주 "크리에이터 공모전 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 오늘의 주요뉴스 [자치행정] ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 [경제일반] 제주에서 드론으로 4일간 피자 배달나서 [사회일반] 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ [관광] 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 [정치일반] 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 한림읍 월령리 게스트하우스서 화재 애월읍 광령리에서 창고 화재 한림서 수영 중 파도에 떠밀려가던 男 구조 조천읍 함덕에서 숙박시설 화재 서귀포 비닐하우스 화재…인명피해 없어 인기뉴스 댓글많은기사 실시간댓글 1 제주에서 드론으로 4일간 피자 배달나서 2 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 3 40년 만 미국 덮친 인플레이션...제주경제 돌파구는? 4 제주시, 투기 목적 농업법인에 “칼 빼” 5 제주지방기상청, 9월 태풍 폭우로 얼룩져…고온 동반 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 8 ‘금호건설 컨소시엄’ 제주하수처리장 현대화사업 첫 우위 9 ‘대한민국 드론 메카’ 제주서 드론산업 발전방안 논의 10 내달 24일부터 1회용품 종이컵, 빨대 등도 제공·사용금지 1 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 2 ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 3 제주시 3층 상가건물 화재…전기적 요인 추정 4 “오영훈 취임 100일 기자회견, 미래도 희망도 보이지 않아” 5 제주시, 투기 목적 농업법인에 “칼 빼” 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 제주에서 드론으로 4일간 피자 배달나서 1 악수하면 처 웃을ㄸㅐ냐 민개당아 지역 경제 좀 활성화 시켜라 ㅅㅂ 2 공항건설도 거부한 민주당 놈에게 바랄걸 바래라 3 신공항이나 만들어라 하는짓 보면 개 가 굴러가며 웃겠다 4 제2공항건설하여 서귀시민 불편해소하자 비행기타러 제주공항갈때는 욕이절로나온다 5 개소리 설레발 떨지말구 효과없이 불필요한 "과속방지턱" 이나 절반 없애라 그래야 차두 안망가지고 사고도 덜난다 선진국에서 는 방지턱 없애는것이 추세다 자슥아 6 이제 하늘도 안심할 수 있는 공간이 아닌건가... 웽웽웽..... 언제 떨어질지 몰라 이리저리 피하느라 힘들것네. 7 진작에 했어야지. 이제라도 정신차렸으니 철저히 조사해 불법이 있으면 엄중한 벌을 주기바람 제주날씨 11일 제주, 당분간 쌀쌀해…한라산에는 서리 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>추석 관광객 21만3000명 제주도로 온다 &lt; 관광 &lt; 생활경제 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-11 11:18 (화) 본문영역 이전 기사보기 다음 기사보기 추석 관광객 21만3000명 제주도로 온다 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 생활경제 관광 추석 관광객 21만3000명 제주도로 온다 기자명 최병근 기자 입력 2015.09.22 09:08 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주도관광협회, 관광객 전년대비 3.6%늘어날 전망 [제주도민일보=최병근 기자] 올해 추석에 제주도를 찾는 관광객은 21만3000여명이 될 것으로 집계됐다.21일 제주도관광협회에 따르면 올해 추석연휴는 대체휴무가 적용되면서 연휴기간 동안 제주를 찾을 관광객은 21만3000여명으로 전년대비 3.6% 내외 늘어날 것으로 전망했다.관광객 가운데는 귀성객이 포함돼 있으며 가족단위 중심의 휴양 및 레저관광객 등이 주를 이룰 것으로 관광협회는 전망했다.제주를 찾는 국내선 항공편수는 총 1073편(정기편 1,030편, 특별기 43편)으로 전년대비 99편 늘어나 운항되며 약 88.9% 예약률을 보이고 있다. 최병근 기자 whiteworld84@hanmail.net 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 제주에서 드론으로 4일간 피자 배달나서 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 해외입국자 입국 1일차 PCR 의무검사 중단 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 국힘 제주도당 "이선화 임명은 吳도정 인사참사" '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 제주개발공사 주최 ‘제12회 제주물 세계포럼’ 개막 제주관광공사 "메타버스에서 만나는 제주 "크리에이터 공모전 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 오늘의 주요뉴스 [자치행정] ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 [경제일반] 제주에서 드론으로 4일간 피자 배달나서 [사회일반] 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ [관광] 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 [정치일반] 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 한림읍 월령리 게스트하우스서 화재 애월읍 광령리에서 창고 화재 한림서 수영 중 파도에 떠밀려가던 男 구조 조천읍 함덕에서 숙박시설 화재 서귀포 비닐하우스 화재…인명피해 없어 인기뉴스 댓글많은기사 실시간댓글 1 제주에서 드론으로 4일간 피자 배달나서 2 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 3 40년 만 미국 덮친 인플레이션...제주경제 돌파구는? 4 제주시, 투기 목적 농업법인에 “칼 빼” 5 제주지방기상청, 9월 태풍 폭우로 얼룩져…고온 동반 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 8 ‘금호건설 컨소시엄’ 제주하수처리장 현대화사업 첫 우위 9 ‘대한민국 드론 메카’ 제주서 드론산업 발전방안 논의 10 내달 24일부터 1회용품 종이컵, 빨대 등도 제공·사용금지 1 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 2 ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 3 제주시 3층 상가건물 화재…전기적 요인 추정 4 “오영훈 취임 100일 기자회견, 미래도 희망도 보이지 않아” 5 제주시, 투기 목적 농업법인에 “칼 빼” 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 제주에서 드론으로 4일간 피자 배달나서 1 악수하면 처 웃을ㄸㅐ냐 민개당아 지역 경제 좀 활성화 시켜라 ㅅㅂ 2 공항건설도 거부한 민주당 놈에게 바랄걸 바래라 3 신공항이나 만들어라 하는짓 보면 개 가 굴러가며 웃겠다 4 제2공항건설하여 서귀시민 불편해소하자 비행기타러 제주공항갈때는 욕이절로나온다 5 개소리 설레발 떨지말구 효과없이 불필요한 "과속방지턱" 이나 절반 없애라 그래야 차두 안망가지고 사고도 덜난다 선진국에서 는 방지턱 없애는것이 추세다 자슥아 6 이제 하늘도 안심할 수 있는 공간이 아닌건가... 웽웽웽..... 언제 떨어질지 몰라 이리저리 피하느라 힘들것네. 7 진작에 했어야지. 이제라도 정신차렸으니 철저히 조사해 불법이 있으면 엄중한 벌을 주기바람 제주날씨 11일 제주, 당분간 쌀쌀해…한라산에는 서리 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>[2015 국감]박수현 “제주도 방문 중국인 관광객 늘어도 중국 항공사만 이익” - 아시아투데이 아시아투데이 서울 다른도시13.2℃ 춘천강릉서울인천충주대전대구전주울산광주부산제주 뉴델리 21.4℃ 도쿄 24.4℃ 베이징 10℃ 자카르타 27.2℃ 네이버뉴스스탠드 네이버 포스트 유투브 페이스북 트위터 최신 오피니언 사설 칼럼·외고 기자의 눈 피플 정치 정치일반 대통령실 국회·정당 북한 외교 국방 정부 사회 사회일반 사건·사고 법원·검찰 교육·행정 노동·복지·환경 보건·의약 경제 경제일반 정책 금융·증권 산업 IT·과학 부동산 유통 중기·벤처 아투시티뉴스 종합 경기·인천 세종·충청 영남 호남 강원 제주 국제 세계일반 아시아·호주 북미 중남미 유럽 중동·아프리카 문화·스포츠 전체 방송 가요 영화 문화 종교 스포츠 여행 포토 전체 포토 비주얼뉴스 지면보기 제보24시 자문위원단 독자권익위원회 아투TV 대학동문골프최강전 글로벌 리더스 클럽 English中文 [2015 국감]박수현 “제주도 방문 중국인 관광객 늘어도 중국 항공사만 이익” 협력재단, 케이콘(KCON) 연계한 중기 제품 수출상담회 개최 '울산공업센터' 지정 60년…"그린 산업수도 도약의 원년" 2022년 10월 11일(화) 자문위원단 독자권익위원회 제보24시 전체메뉴 경제 경제일반 정책 금융·증권 산업 IT·과학 부동산 유통 중기·벤처 검색버튼 [2015 국감]박수현 “제주도 방문 중국인 관광객 늘어도 중국 항공사만 이익” 기사승인 2015. 09. 14. 13:46 가 (더 작게) 가 (작게) 가 (기본) 가 (크게) 가 (더 크게) 제주~중국 노선 운항 항공사 80%가량 중국 항공사"외환위기 이후 일방적인 자유화 탓, 항공회담 필요" 새정치민주연합 박수현 의원0국회에서 질의하고 있는 박수현 새정치민주연합 의원/제공=연합뉴스 제주도를 방문하는 중국인 관광객이 늘어도 정작 혜택은 중국항공사에게 돌아가 중국과의 항공회담이 필요하다는 지적이 제기됐다.국회 국토교통위원회 소속 새정치민주연합 박수현 의원은 14일 열린 한국공항공사에 대한 국정감사에서 “올해 상반기 제주를 찾은 중국인 관광객은 116만1941명으로 지난해 같은 기간 110만9759명보다 6만명 가량 늘었지만 국내 항공사들은 제주공항의 일방적 자유화 정책에 막혀 그 혜택을 보지 못하고 있다”고 지적했다.실제 한국공항공사가 제출한 자료에 따르면 제주~중국노선의 운항횟수는 2013년 8555편, 작년 1만2894편으로 늘어났다. 올해 들어서도 8월말 현재 7444편이 운항돼 메르스 사태에도 불구하고 지난해 같은 기간과 비슷한 수준을 유지하고 있다. 반면 지난해 제주~중국 노선을 운항한 1만2894편 중 국내 항공사의 운항횟수는 2621편으로 20%에 불과했다. 박 의원은 “중국인 관광객의 급증이 항공수요를 증가시켰지만 그 혜택은 중국항공사가 가져가고 있어 제주의 하늘길이 중국에 장악 당했다”며 “이는 외환위기 직후인 제주관광 활성화 명목으로 제주공항에 한해 ‘일방적 자유화’를 추진해 탓으로, 중국 항공사와 달리 국내 항공사들은 중국과의 항공회담을 통해야만 중국노선에 취항 할 수 있어 불평등이 심화되고 있다”고 말했다.이어 “중국항공사의 제주~중국노선 점유율이 2013년 56.2%, 작년 79.1%, 올해는 8월말 현재 83.5%까지 늘어났는데 정부의 대응은 너무 무능력하다”고 질책하며 “조속히 중국과의 항공회담을 열어 불평등을 해소 할 것”을 촉구했다. 황의중 기자 hej80@asiatoday.co.kr ⓒ아시아투데이, 무단전재 및 재배포 금지 댓글 라이브리 댓글 작성을 위해 JavaScript를 활성화 해주세요 많이 본 뉴스 연예가 핫 뉴스 1 북한, 전투기 150대 동시출격…군, F-35A로 맞대응 2 野 “한동훈 美 출장에 현직 검사 동행”…韓 “실무자 수.. 3 장성 황룡강 가을꽃축제, ‘사람반 꽃반’ 첫날 방문객 6.. 4 삼성전자 “우크라 지사, 미사일 직격 면해… 인명 피해.. 5 ‘음주측정 불응·경찰폭행’ 장용준 14일 대법 선고 6 “시장 저평가 탈출할까”…목표주가에 못미친 종목들 주목 1 ‘환승연애2’ 정현규♥성해은, 달달함 통했나…티빙 유료가.. 2 임영웅의 기록은 어디까지? 유튜브 조회수 17억 뷰 눈앞.. 3 韓피겨 밝은 미래, 차준환 이어 김예림도 女피겨 챌린저.. 4 ‘숨은 히어로’ 김하성, 이번엔 111승 다저스 사냥 ‘.. 5 최영선, ‘리나 살라 갈로 피아노 콩쿠르’서 우승 “한국.. 6 kt, NC 5-2로 꺾고 준플레이오프 직행에 1승만 남.. 오늘의 주요뉴스 “네이버, 소상공인 기금 일부 유용”…네이버 “입장없다” ‘부동산 매물정보 갑질’ 네이버 최수연 첫 재판 연기 이해진 “라인 韓기업이라면, 네이버 韓 아닌 외국기업” 尹, 친일국방 공세에 “北위협 어떤 우려 정당화되나” 유승민 “李, 中 3불 강요 ‘한미일 군사동맹’ 쓰지말라” 건보개편 후폭풍?…국민연금 자발적 가입자 첫 감소 홍준표, 당권주자 겨냥 “배신 경력자는 나오지 말라” ‘신화’ 신혜성, 도난차량서 음주측정 거부하다 체포 신규확진 1만5476명 감소세…사망 10명, 석달새 최소 ‘다사다난’ 오세훈 시장 취임 100일…성과와 과제는 글로벌리더스클럽 회사소개 | 광고안내 | 행사안내 | 구독신청 | 제보24시 | 고충처리 | 회원약관 | 개인정보취급방침 | 청소년보호정책 | 저작권규약 | 인재채용 등록번호 : 서울 아00160 | 등록일 : 2006년 1월 18일 | 제호 : 아시아투데이 | 회장 : 송인준 | 발행인ㆍ편집인 : 우종순 서울시 영등포구 의사당대로1길 34 인영빌딩 | 발행일자 : 2005년 11월 11일 | 대표전화 : 02) 769-5000 | 청소년보호책임자 : 성희제 아시아투데이는 인터넷신문위원회 윤리강령을 준수합니다. Copyright by ASIATODAY Co., Ltd. All Rights Reserved</t>
+  </si>
+  <si>
+    <t>제주도 찾은 외국인 관광객 천만명 중 중국인은… - 노컷뉴스 전체메뉴보기 노컷뉴스메인가기 제주도 찾은 외국인 관광객 천만명 중 중국인은… 뉴스듣기 0 페이스북 트위터 밴드 카카오톡 URL 폰트사이즈 - + 인쇄 CBS 전국 네트워크 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 닫기 크리스천뉴스 노컷비즈 노컷TV 노컷뉴스 경제 최신 정치 사회 전국 경제 산업 국제 문화 연예 스포츠 오피니언 포토 그래픽 노컷브이 핫이슈 스페셜 기획 제보 네이버 구독 다음 구독 카카오 구독 삭제 검색 자동완성 끄기 뉴스 정치 사회 전국 경제 산업 국제 문화 연예 스포츠 지역 서울 경인 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 일반 이슈 핫이슈 스페셜 기획 딥뉴스 노컷체크 인터랙티브 타임라인 시사 김현정의 뉴스쇼 한판승부 김덕기의 아침뉴스 정다운의 뉴스톡 530 오피니언 칼럼 뒤끝작렬 기고 노컷브이 그래픽 포토 노컷TV 씨리얼 팟캐스트 닫기 경제 경제 일반 제주도 찾은 외국인 관광객 천만명 중 중국인은… CBS노컷뉴스 조백근 대기자 메일보내기 2015-09-02 17:57 뉴스듣기 0 페이스북 트위터 밴드 카카오톡 URL 폰트사이즈 - + 인쇄 (사진=스마트이미지 제공) 지난 2005년부터 10년간 제주도를 찾은 관광객은 천만명을 훌쩍 넘었고 이 가운데 중국인이 70%이상으로 가장 많았던 것으로 나타났다. 제주국제자유도시개발센터가 새누리당 김희국의원에게 제출한 자료에 따르면 최근 10년간 제주도를 찾은 관광객은 1171만9427명인 것으로 집계됐다.국적별로는 중국인이 760만74명으로 가장 많았고, 이어 일본인이 163만8358명, 대만이 49만4171명,싱가폴 36만9093명, 미국인이 21만8333명 순이었다.최근 3년간 제주공항면세점에서 외국인 관광객들이 가장 많이 쇼핑한 물건은 화장품이 압도적이었다. {RELNEWS:right}2012년도에 25억3900만원어치의 화장품이 팔렸고, 2013년엔 45억3500만원, 2014년엔 72억9100만원, 2015년7월말현재 26억5400만원어치의 화장품이 각각 팔렸다. 화장품외 상위 10위 면세품목은 핸드백/지갑.밸트, 담배, 향수, 시계, 선글라스, 주류, 홍삼, 엑세서리, 초콜릿으로 나타났다.특히 중국인 관광객은 지난 2012년에108만4094명으로 백만명을 넘긴 이후 불과 3년만인 2014년엔 332만8316명으로 폭발적으로 늘었으며 화장품 판매가 늘어난 것도 중국인 관광객 증가에 따른 것이다. 김희국 의원은 “중국인 관광객 급증은 환영할 일이지만 거기에만 너무 집중하다 보면 다른 나라 관광객 유치에 소홀해질 수 있는만큼 다양한 나라 사람들이 보다 많이 제주도를 찾을 수 있도록 적극적인 홍보가 필요하다”고 말했다. 더 클릭 신화 신혜성, 도난 차량서 음주측정 거부 혐의…현행범 체포 15살 성매수·몰카 찍은 30대…요구 거부하자 "전세계로 퍼진다" 손목에 체인 묶은 남녀?…아슬아슬 수위 높이는 연애 예능 "좋은 냄새난다" 병사들 상습 추행 …"징계 가혹"하다는 군 간부 [르포]'나눔이·농부' 판치는 다크웹…'마약과의 전쟁' 비웃나 중국 상해서 대규모 한국관광 설명회 열린다 아모레 '유커 모시기' 총력…中 백화점 관계자 팸투어 초청 '바다 위 호텔'…6천명 태운 초대형 크루즈 인천항 첫 입항 유커 잡기 위해 '8'을 공략하라 충북, 유커(遊客)가 돌아온다 CBS노컷뉴스 조백근 대기자 메일 0 0 이 시각 주요뉴스 오늘의 기자 많이 본 뉴스 실시간 댓글 투데이 핫포토 오늘의 핫뉴스닫기 / 이전 다음 닫기 노컷뉴스 회사소개 사업 제휴 광고안내 콘텐츠 구매 제보 이용약관 개인정보 취급방침 편집규약 지역노컷 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 인터넷신문 등록번호 : 서울 아00030 | 등록일자 : 2005.08.30(노컷뉴스), 2007.11.05(노컷TV) 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 | ISSN : 2636-0373 노컷뉴스의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2003 CBS M&amp;C, 노컷뉴스 all rights reserved. 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 노컷스포츠 | 인터넷신문 등록번호 : 서울 아04480 | 등록일자 : 2017.04.20 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 노컷스포츠의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2003 CBS M&amp;C, 노컷스포츠 all rights reserved. 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 노컷연예 | 인터넷신문 등록번호 : 서울 아04479 | 등록일자 : 2017.04.20 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 노컷연예의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2017 by CBS M&amp;C, 노컷연예 all rights reserved.</t>
+  </si>
+  <si>
+    <t>1000만 관광객 시대 맞은 제주도 환경유지·재방문 대책마련 필요 &lt; 도민기자 마당 &lt; 사회 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 사회 최종편집 2022-10-11 (화) 01:47 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 본문영역 이전 기사보기 다음 기사보기 1000만 관광객 시대 맞은 제주도 환경유지·재방문 대책마련 필요 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 사회 도민기자 마당 1000만 관광객 시대 맞은 제주도 환경유지·재방문 대책마련 필요 기자명 김지훈 도민기자 입력 2015.09.17 10:07 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 [김지훈 도민기자]런던 혼잡 통행료 정책 등외국 성공 사례 도입 필요 1000만 관광객 시대를 맞은 제주가 쾌적한 환경을 유지하고 관광객들의 재방문을 유도하기 위해 외국의 정책을 벤치마킹하는 등 효율적인 방안을 마련해야 한다는 주문이다. 런던은 면적이 1572㎞, 인구가 863만명에 이르는 대도시로 알려져 주변에서는 혼잡한 곳으로 떠올리기 쉽다. 하지만 최근 여행을 다녀온 결과 런던은 교통 흐름이 원활하고, 주택단지 내의 골목길에서도 정체되지 않은 현상을 보였다. 이는 런던 교통국이 도심으로 진입하는 자가용에 부과하는 혼잡통행료 등이 효과를 보고 있는 것으로 하루 8파운드(한화 약 1만4500원)를 부과한다. 또 런던시는 스마트빈(Smart Bin)이라는 최첨단 쓰레기통을 보급하고 있다. 스마트빈은 많은 종류의 쓰레기를 압축해 일반적인 쓰레기통의 용량과 비교해 최대 8배의 쓰레기를 저장할 수 있고 용량이 가득 차면 해당 구청으로 정보가 전송돼 청소부가 처리하게 된다. 이로 인해 매일 점검하는데 소요되는 관리비용이 절감되는 효과를 보고 있다. 환경전문가에 따르면 쾌적한 환경이 관광객 유치를 위해 지출하는 각종 보조금이나 마케팅 비용보다 훨씬 더 관광객들을 매료시킨다. 일일 입도관광객이 4만명에 이르는 관광지인 제주도 성숙한 시민의식과 더불어 환경을 고려한 행정대책이 이뤄져야 한다는 목소리에 귀를 기울일 일이다. 김지훈 도민기자 김지훈 도민기자 webmaster@jemin.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 오늘의운세 10월11일(음력9월16일) 내 영혼이 따뜻해지는 날 장 발장 이야기 진단/포괄적 권한이양 전환 현실성 있나 예술인들 자발적 참여로 빈 땅에 '예술마을' 조성 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 제61회 탐라문화제 9일 일부 일정 10일로 연기 2 오늘의운세 10월11일(음력9월16일) 3 제103회 전국체전 4일차...메달 레이스 이어가 4 [우리회사 창립기념일] 10월 10~16일 5 제주문학학교, 문태준 시인 초청 북토크 6 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 7 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 8 제23회 제주여성영화제 요망진작품상 '나들이' 선정 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>2015년 제주도 최고 '관광명품·명장'은 누구? &lt; 제주특별자치도 &lt; 행정 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-11 12:04 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 업체는 반발, 도민은 무관심...체면 구긴 버스 준공영제 용역 ‘잠정 중단’ 흔들리던 제주돌문화공원 정상화 시작...인위적 조형물 철거 윤석열, 일제고사 부활..."학업성취도 전수평가, 모든학교 참여" 지난 8월, 제주 가파도서 발견된 신체 일부 정체 ‘오리무중’ 제주 민관협력의원 최대 난제 의원·약국 임대료 대폭 인하 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 2015년 제주도 최고 '관광명품·명장'은 누구? 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 행정 제주특별자치도 2015년 제주도 최고 '관광명품·명장'은 누구? 기자명 이승록 기자					(leerevol@naver.com) 입력 2015.09.04 11:37 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 "제주관광명품·명장을 찾습니다"제주도는 품질이 우수하며, 부가가치가 높은 관광기념품을 찾아 제주대표 상품으로 육성하기 위해 '2015년도 제주관광명품·명장'을 선정한다고 4일 밝혔다.제주관광명품 응모자격은 제주도의 특색 및 향토성과 한국의 전통미를 반영함과 동시에 현대적인 감각이 조화를 이뤄 독창성이 있는 제품으로 공고일 현재 제주도에서 생산·제조되는 제품이어야 한다.제주관광명장은 명품으로 선정된 기념품을 생산·제조하는 자로 공고일 현재 해당분야 10년 이상 직접 종사자로, 5년 이상 제주 거주자에 한한다.출품을 원하는 자는 오는 10월6일부터 7일까지 참가 신청서와 출품작품을 제주도관광협회로 접수하면 된다.관련분야 전문가로 구성된 심사위원단의 심사와 관광객 및 도민 선호도 조사, 제주도 관광기념품개발육성위원회 심의를 거쳐 최종 선정된다.선정자에게는 각종 홍보지원과 제품개발 및 생산장려금(1000만원 이내) 지원 등의 특전이 주어진다.관광명품·명장 선정과 관련해 자세한 사항은 제주도 관광산업과(064-710-3342)나 제주도관광협회(064-741-8744)로 문의하면 된다. 이승록 기자 leerevol@naver.com 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 3 3년 만에 대면 행사 14~15일 제주광어 대축제 4 제주·서귀포 전 시민대상 2022년 주민등록 사실조사 실시 5 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 6 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 7 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 8 ‘기부와 나눔 축제’ 아름다운제주마라톤 D-14, 3년만에 다시 달린다 9 제주시, 고질체납과 비과세·감면차량 일제조사 10 10억원 투입 제주 마을어장에 종자 91만 마리 방류 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 “모든 관객·시청자가 자막 없이 제주어 대사 알아듣는 날 오길” 3 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 4 한문 대신 알기 쉬운 한글 가득한 절집 제주 남선사 “부처님 좋은 말씀 우리말로” 5 ‘15분 도시’ 창시한 프랑스 학자, 제주 찾아 “주민 공감대 형성 중요” 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 10억원 투입 제주 마을어장에 종자 91만 마리 방류 9 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 10 한글날 맞이 ‘아름다운 우리말 상표’, 제주어 ‘배또롱’ 선정 1 교권침해? 정말 심각한 현실을 만든 사람은 바로 형평성이나 현실인식이 부족한 어설픈 학생인권론자들 아닌가요? 그동안 학생인권이 어쩌네 하면서 대다수 교사를 범죄자 취급하던 비현실적인 학생인권강화가 지금과 같은 교권 침해를 만들어낸거죠 학생인권이라는 명목하에 벌어지는 교권 침해에 모든 피해는 학생에게 돌아갈 수 밖에 없습니다. 이젠 선생님들이 문제학생들과 상대조차 하기 싫어하고 문제 학부모와는 형식적인 상담 밖에 안이루어집니다. 제주를 대표하는 삼*초 징역8년 사건, 처음에 그 사람말만듣고 해당 교사와 학교당국에게 손가락질 하던 사람들이 누구였나요? 학생의 잘못을 눈감게 만드는 교육현실, 그 피해는 학부모와 학생에게 갈수 밖에 없습니다. 2 아직도 초등학교 애들 구렛나루털을 손으로 쥐어서 한움큼 뽑아서 피부에서 피가 송글송글 맺히게 했던 그 씨발 선생놈이 생각난다 그때 생각하면 너네는 좀 더 당해도 싸다 3 [제주의소리] 관리자입니다. 지적해주신 부분 수정했습니다. 감사합니다. 4 남은 경기 전승하면 58점, 포항이 전패하면 55점 3위 가능합니다 5 못간다 6 놀래기류 어류에 먹이주는 수산자원조사업 이제 그만해야 7 지구온난화 등 기후변화가 계속 되는데 수산자원조성사업은 변화가 없다 … 전복, 오분자기 등 패류종자 방류사업 이제는 그만해야 … 관련 전문가들은 무엇을 하는지? 8 해녀들 신나겠네 ㅋㅋㅋㅋ 돈 많이 버소 9 일본에서 벗어나는 가장 기초적인 일은 법정용어를 제대로 한글로 바꾸는 것부터 시작이다. 지금까지 이런 말이 권위적이고 위압적이라 자신의 기득권을 위해 국회의원이든 도의원이든 그냥 써먹고 있었다. 아니면 전혀 의식이 없던가. 몇개만 바꾸지 말고 다 바꾸어라. 10 이런 일본식 명칭들. 일반 사람들보다 주로 공공기관에서만 썼던 것들이죠. 즉 전문용어? 뭔가 어려운 느낌으로 권위 있는척 하려고 지금도 많이 쓰죠. 특히 의학이나 법정용어들 + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 성 프란치스코 평화센터, 김종민 위원 초청 ‘4.3과 평화’ 강의 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 끗어내엉 써사 달란틉주 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 기초학력보다 교육 격차와 다양성에 주목해야 하는 이유 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 아이 행실광 몽닌 우던(덥덜)으로 간다 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 남아있는 기억의 흔적 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 효돈감귤을 제주도에선 젤 알아줍니다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 사랑나눔봉사단 다문화가정 봉사활동 &lt; 포토뉴스 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 사랑나눔봉사단 다문화가정 봉사활동 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 포토뉴스 제주도관광협회, 사랑나눔봉사단 다문화가정 봉사활동 기자명 고병수 기자 입력 2015.09.03 19:04 수정 2015.09.03 19:07 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 ▲ (제주=국제뉴스) 고병수기자 = 제주특별자치도관광협회 사랑나눔봉사단(단장 강인철)은 제주시 다문화가족지원센터와 연계해 2일 다문화가정 40여명과 함께 생각하는 정원 관람과 낙천아홉굿마을 보리피자 만들기 체험 등 1일 제주 관광 행사를 실시했다. 관광협회 사랑나눔봉사단은 앞으로 지역 소외계층 및 장애인 등 관광약자를 대상으로 제주관광 체험 기회를 지속 지원해 나갈 계획이다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도를 대표할 관광명품·명장 어디있나요? &lt; 관광 &lt; 생활경제 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-11 11:18 (화) 본문영역 이전 기사보기 다음 기사보기 제주도를 대표할 관광명품·명장 어디있나요? 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 생활경제 관광 제주도를 대표할 관광명품·명장 어디있나요? 기자명 최병근 기자 입력 2015.09.04 10:51 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주도, ‘2015년 제주관광명품·명장 선정’...10월6·7일 접수 [제주도민일보=최병근 기자] 제주도가 올해를 대표할 제주관광 명품과 명장을 찾아 나선다.제주도는 ‘2015년도 제주관광명품·명장 선정’을 연다고 4일 밝혔다. 이 행사는 제주의 특성과 향토성을 잘 나타내고 품질이 우수한 관광기념품을 찾아 제주대표 상품으로 키우기 위해 마련된 것이다.제주관광명품 공모대상과 응모자격은 제주도의 특색 및 향토성과 한국의 전통미를 반영함과 동시에 현대적인 감각이 조화를 이루어 독창성이 있는 제품이다. 공고일 현재 제주도에서 생산, 제조되는 제품이어야 한다.제주관광명장은 제주관광명품으로 선정된 기념품을 생산 제조하는 도민으로 공고일 현재 해당분야에서 10년이상 직접 종사자로 일해야 한다. 아울러 도내에서 5년 이상 살아야 한다.출품을 원하는 도민은 10월 6일부터 10월 7일까지 참가신청서와 출품작품을 제주도관광협회로 접수하면 된다.작품심사는 관련분야 전문가로 구성된 심사위원단의 심사와 관광객 및 도민 선호도 조사, 제주도 관광기념품개발육성위원회 심의를 거쳐 선정된다. 선정된 자에게는 각종 홍보지원과 제품개발 및 생산장려금(1천만원 이내)지원 등의 특전이 이뤄진다,자세한 사항은 제주도 관광산업과(064-710-3342)와 제주도관광협회(064-741-8744)로 문의하면 된다.한편 지난해 제주관광명품·명장으로는 ‘7첩 반상기(안통천)’가 선정됐다. 최병근 기자 whiteworld84@hanmail.net 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 제주에서 드론으로 4일간 피자 배달나서 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 해외입국자 입국 1일차 PCR 의무검사 중단 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 국힘 제주도당 "이선화 임명은 吳도정 인사참사" '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 제주개발공사 주최 ‘제12회 제주물 세계포럼’ 개막 제주관광공사 "메타버스에서 만나는 제주 "크리에이터 공모전 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 오늘의 주요뉴스 [자치행정] ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 [경제일반] 제주에서 드론으로 4일간 피자 배달나서 [사회일반] 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ [관광] 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 [정치일반] 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 한림읍 월령리 게스트하우스서 화재 애월읍 광령리에서 창고 화재 한림서 수영 중 파도에 떠밀려가던 男 구조 조천읍 함덕에서 숙박시설 화재 서귀포 비닐하우스 화재…인명피해 없어 인기뉴스 댓글많은기사 실시간댓글 1 제주에서 드론으로 4일간 피자 배달나서 2 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 3 40년 만 미국 덮친 인플레이션...제주경제 돌파구는? 4 제주시, 투기 목적 농업법인에 “칼 빼” 5 제주지방기상청, 9월 태풍 폭우로 얼룩져…고온 동반 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 8 ‘금호건설 컨소시엄’ 제주하수처리장 현대화사업 첫 우위 9 ‘대한민국 드론 메카’ 제주서 드론산업 발전방안 논의 10 내달 24일부터 1회용품 종이컵, 빨대 등도 제공·사용금지 1 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 2 ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 3 제주시 3층 상가건물 화재…전기적 요인 추정 4 “오영훈 취임 100일 기자회견, 미래도 희망도 보이지 않아” 5 제주시, 투기 목적 농업법인에 “칼 빼” 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 제주에서 드론으로 4일간 피자 배달나서 1 악수하면 처 웃을ㄸㅐ냐 민개당아 지역 경제 좀 활성화 시켜라 ㅅㅂ 2 공항건설도 거부한 민주당 놈에게 바랄걸 바래라 3 신공항이나 만들어라 하는짓 보면 개 가 굴러가며 웃겠다 4 제2공항건설하여 서귀시민 불편해소하자 비행기타러 제주공항갈때는 욕이절로나온다 5 개소리 설레발 떨지말구 효과없이 불필요한 "과속방지턱" 이나 절반 없애라 그래야 차두 안망가지고 사고도 덜난다 선진국에서 는 방지턱 없애는것이 추세다 자슥아 6 이제 하늘도 안심할 수 있는 공간이 아닌건가... 웽웽웽..... 언제 떨어질지 몰라 이리저리 피하느라 힘들것네. 7 진작에 했어야지. 이제라도 정신차렸으니 철저히 조사해 불법이 있으면 엄중한 벌을 주기바람 제주날씨 11일 제주, 당분간 쌀쌀해…한라산에는 서리 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
   </si>
 </sst>
 </file>
@@ -425,7 +473,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -446,9 +494,6 @@
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
@@ -465,6 +510,9 @@
       <c r="B4" t="s">
         <v>4</v>
       </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
@@ -490,7 +538,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -501,7 +549,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -512,7 +560,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -523,7 +571,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -534,7 +582,105 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
         <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
